--- a/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarcelino/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0874F09E-B6C0-FB4F-AAC2-43A36E8F2E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFAA334-86FA-7A4D-B3DD-299AD19C9E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="-19260" windowWidth="27040" windowHeight="15780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3460" yWindow="-21900" windowWidth="27040" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -396,9 +396,6 @@
     <t>Auto-Loader</t>
   </si>
   <si>
-    <t>Tethys (GeneTitan)</t>
-  </si>
-  <si>
     <t>Nimbus 1</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>On-Sequencer</t>
   </si>
   <si>
-    <t>Themis (GeneTitan)</t>
-  </si>
-  <si>
     <t>Nimbus 2</t>
   </si>
   <si>
@@ -1564,6 +1558,12 @@
   </si>
   <si>
     <t>P24</t>
+  </si>
+  <si>
+    <t>Protected (GeneTitan)</t>
+  </si>
+  <si>
+    <t>OnNetwork (GeneTitan)</t>
   </si>
 </sst>
 </file>
@@ -2250,9 +2250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10326,15 +10326,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Index!$F$2:$F$4</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D7:D26</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Index!$A$2:$A$3</xm:f>
@@ -10353,6 +10344,12 @@
           </x14:formula2>
           <xm:sqref>J15</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{4671A5B6-8819-4F46-BDA6-70684686855E}">
+          <x14:formula1>
+            <xm:f>Index!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7:D26</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -10363,7 +10360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -18480,7 +18477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -20297,7 +20294,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20357,129 +20354,129 @@
       <c r="E2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="J2" t="s">
         <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="J3" t="s">
         <v>98</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -20487,100 +20484,100 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
@@ -20591,196 +20588,196 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
         <v>30</v>
@@ -20788,1810 +20785,1810 @@
     </row>
     <row r="52" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D91" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D94" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="174" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="176" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="177" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="179" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="191" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="192" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="193" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="195" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="196" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="197" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="198" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="199" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="204" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="205" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="206" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="208" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="210" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="212" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="213" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="214" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="215" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="219" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="220" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="222" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="223" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="224" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="226" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="227" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="228" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="229" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D229" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="230" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="231" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="233" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="234" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D235" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="236" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="237" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="238" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="239" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D239" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="240" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D240" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="241" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D241" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="242" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D242" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="243" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D243" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="244" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="245" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D245" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="246" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D246" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="247" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D247" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="248" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D248" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="249" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D249" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="250" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="251" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D251" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="252" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="253" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="254" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D254" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="256" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="257" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D257" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="258" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="259" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D259" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="260" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D260" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="261" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="262" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="263" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D263" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="264" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D264" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="265" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="266" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D266" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="267" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D267" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="268" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D268" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="269" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="270" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="271" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="272" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="273" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D273" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="274" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D274" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="275" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="276" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D276" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="277" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="278" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="279" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="280" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="281" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="282" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D282" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="283" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="284" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D284" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="285" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="286" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="287" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D287" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="288" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D290" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D294" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D295" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D301" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="306" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="307" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="308" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="309" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D310" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="311" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="312" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="313" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="314" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D314" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="315" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="316" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="317" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D317" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="318" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="319" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="320" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="321" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="322" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="323" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D323" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="324" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D324" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="325" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="326" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D326" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="327" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D327" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="328" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D328" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="329" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="330" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D330" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="331" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D331" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="332" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="333" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="334" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="335" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D335" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="336" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="337" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="338" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="339" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="340" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D340" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="341" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="342" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="343" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="344" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="345" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="346" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D346" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="347" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D347" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="348" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="349" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D349" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="350" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="351" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D351" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="352" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D352" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="353" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="354" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D354" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="355" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="356" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D356" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="357" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D357" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="358" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D358" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="359" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D359" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="360" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D360" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="361" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D361" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="362" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="363" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D363" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="364" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D364" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="365" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="366" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D366" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="367" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="368" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D368" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="369" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D369" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="370" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D370" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="371" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D371" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="372" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D372" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="373" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D373" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="374" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D374" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="375" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D375" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="376" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D376" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="377" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D377" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="378" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D378" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="379" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D379" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="380" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D380" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="381" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D381" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="382" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D382" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="383" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D383" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="384" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D384" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="385" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="386" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarcelino/Desktop/freezeman/backend/fms_core/static/submission_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7657230B-6471-3047-9A50-9FA646EC5DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5EC993-7878-D64E-9A2A-6B9BFED7EE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="-23360" windowWidth="27040" windowHeight="15780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="-23360" windowWidth="27040" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Run Type</t>
   </si>
   <si>
-    <t>AXIOM</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -1564,6 +1561,9 @@
   </si>
   <si>
     <t>Sample Name</t>
+  </si>
+  <si>
+    <t>Axiom</t>
   </si>
 </sst>
 </file>
@@ -2248,9 +2248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>481</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2312,37 +2312,37 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="6"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -2350,10 +2350,10 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>7</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>8</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -2361,37 +2361,37 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -10383,34 +10383,34 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="7"/>
@@ -10423,31 +10423,31 @@
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -18475,7 +18475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -18489,36 +18489,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -19984,27 +19984,27 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -20012,169 +20012,169 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>52</v>
       </c>
       <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>54</v>
       </c>
       <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>56</v>
       </c>
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>62</v>
       </c>
       <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>68</v>
       </c>
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="C27" s="29"/>
     </row>
@@ -20185,89 +20185,89 @@
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="29"/>
     </row>
@@ -20306,2281 +20306,2281 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" t="s">
         <v>91</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="J3" t="s">
         <v>96</v>
-      </c>
-      <c r="J3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
         <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
         <v>112</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
         <v>114</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
         <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
         <v>118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
         <v>120</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
         <v>122</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
         <v>124</v>
-      </c>
-      <c r="D22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
         <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s">
         <v>128</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
         <v>130</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
         <v>143</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
         <v>145</v>
-      </c>
-      <c r="D39" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
         <v>147</v>
-      </c>
-      <c r="D40" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
         <v>149</v>
-      </c>
-      <c r="D41" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
         <v>151</v>
-      </c>
-      <c r="D42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
         <v>153</v>
-      </c>
-      <c r="D43" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
         <v>155</v>
-      </c>
-      <c r="D44" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" t="s">
         <v>157</v>
-      </c>
-      <c r="D45" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
         <v>159</v>
-      </c>
-      <c r="D46" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="47" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" t="s">
         <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="48" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" t="s">
         <v>163</v>
-      </c>
-      <c r="D48" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="49" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" t="s">
         <v>165</v>
-      </c>
-      <c r="D49" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" t="s">
         <v>179</v>
-      </c>
-      <c r="D62" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="63" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
         <v>181</v>
-      </c>
-      <c r="D63" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="64" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" t="s">
         <v>183</v>
-      </c>
-      <c r="D64" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" t="s">
         <v>185</v>
-      </c>
-      <c r="D65" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" t="s">
         <v>187</v>
-      </c>
-      <c r="D66" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" t="s">
         <v>189</v>
-      </c>
-      <c r="D67" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" t="s">
         <v>191</v>
-      </c>
-      <c r="D68" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" t="s">
         <v>193</v>
-      </c>
-      <c r="D69" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" t="s">
         <v>195</v>
-      </c>
-      <c r="D70" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" t="s">
         <v>197</v>
-      </c>
-      <c r="D71" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="72" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" t="s">
         <v>199</v>
-      </c>
-      <c r="D72" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="73" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" t="s">
         <v>201</v>
-      </c>
-      <c r="D73" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" t="s">
         <v>215</v>
-      </c>
-      <c r="D86" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
+        <v>216</v>
+      </c>
+      <c r="D87" t="s">
         <v>217</v>
-      </c>
-      <c r="D87" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" t="s">
         <v>219</v>
-      </c>
-      <c r="D88" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" t="s">
         <v>221</v>
-      </c>
-      <c r="D89" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" t="s">
         <v>223</v>
-      </c>
-      <c r="D90" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" t="s">
         <v>225</v>
-      </c>
-      <c r="D91" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" t="s">
         <v>227</v>
-      </c>
-      <c r="D92" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
+        <v>228</v>
+      </c>
+      <c r="D93" t="s">
         <v>229</v>
-      </c>
-      <c r="D93" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94" t="s">
         <v>231</v>
-      </c>
-      <c r="D94" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
+        <v>232</v>
+      </c>
+      <c r="D95" t="s">
         <v>233</v>
-      </c>
-      <c r="D95" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" t="s">
         <v>235</v>
-      </c>
-      <c r="D96" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" t="s">
         <v>237</v>
-      </c>
-      <c r="D97" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="177" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="178" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="179" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="181" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="184" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="186" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="187" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="188" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="189" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="191" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="192" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="194" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="195" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="196" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="197" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="198" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="200" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="201" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="202" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="203" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="204" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="205" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="206" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="207" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="208" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="209" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="210" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="211" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="212" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="214" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="216" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="217" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="218" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="219" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="221" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="222" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="224" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="225" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="226" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="227" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="228" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="229" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D229" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="230" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="232" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="233" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="234" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="235" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D235" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="236" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="237" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="238" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="239" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D239" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="240" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D240" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="241" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D241" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="242" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D242" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="243" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D243" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="244" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="245" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D245" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="246" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D246" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="247" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D247" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="248" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D248" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="249" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D249" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="250" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="251" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D251" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="252" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="253" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="254" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D254" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="256" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D257" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="258" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="259" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D259" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="260" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D260" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="261" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="262" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="263" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D263" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="264" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D264" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="265" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="266" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D266" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="267" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D267" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="268" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D268" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="269" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="270" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="271" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="272" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="273" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D273" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="274" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D274" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="275" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="276" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D276" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="277" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="278" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="279" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="280" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="281" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="282" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D282" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="283" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="284" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D284" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="285" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="286" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="287" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D287" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="288" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D290" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D294" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D295" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D301" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="306" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="307" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="308" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="309" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="310" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D310" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="311" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="312" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="313" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="314" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D314" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="315" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="316" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="317" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D317" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="318" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="319" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="320" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="321" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="322" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="323" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D323" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="324" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D324" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="325" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="326" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D326" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="327" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D327" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="328" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D328" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="329" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="330" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D330" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="331" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D331" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="332" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="333" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="334" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="335" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D335" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="336" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="337" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="338" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="339" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="340" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D340" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="341" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="342" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="343" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="344" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="345" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="346" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D346" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="347" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D347" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="348" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="349" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D349" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="350" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="351" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D351" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="352" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D352" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="353" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="354" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D354" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="355" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="356" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D356" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="357" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D357" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="358" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D358" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="359" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D359" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="360" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D360" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="361" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D361" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="362" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="363" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D363" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="364" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D364" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="365" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="366" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D366" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="367" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="368" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D368" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="369" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D369" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="370" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D370" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="371" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D371" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="372" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D372" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="373" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D373" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="374" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D374" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="375" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D375" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="376" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D376" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="377" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D377" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="378" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D378" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="379" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D379" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="380" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D380" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="381" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D381" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="382" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D382" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="383" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D383" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="384" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D384" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="385" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="386" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarcelino/Desktop/freezeman/backend/fms_core/static/submission_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5EC993-7878-D64E-9A2A-6B9BFED7EE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D9E75-8104-B84D-8B55-82239B541948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="-23360" windowWidth="27040" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1660" yWindow="-17560" windowWidth="27040" windowHeight="15780" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="481">
   <si>
     <t>Experiment Submission Template</t>
   </si>
@@ -384,9 +384,6 @@
     <t>Liquid Handler instrument</t>
   </si>
   <si>
-    <t>Axiom_UKB_WCSG</t>
-  </si>
-  <si>
     <t>Auto-Loader</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     <t>Step complete - Move to next step</t>
   </si>
   <si>
-    <t>Axiom_PMRA</t>
-  </si>
-  <si>
     <t>A02</t>
   </si>
   <si>
@@ -1554,16 +1548,19 @@
     <t>P24</t>
   </si>
   <si>
-    <t>Protected (GeneTitan)</t>
-  </si>
-  <si>
-    <t>OnNetwork (GeneTitan)</t>
-  </si>
-  <si>
     <t>Sample Name</t>
   </si>
   <si>
     <t>Axiom</t>
+  </si>
+  <si>
+    <t>axiom genetitan array</t>
+  </si>
+  <si>
+    <t>Protected</t>
+  </si>
+  <si>
+    <t>OnNetwork</t>
   </si>
 </sst>
 </file>
@@ -2248,9 +2245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2303,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -10323,7 +10320,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Index!$A$2:$A$3</xm:f>
@@ -10331,7 +10328,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C7:C26</xm:sqref>
+          <xm:sqref>C8:C26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -10347,6 +10344,12 @@
             <xm:f>Index!$F$2:$F$3</xm:f>
           </x14:formula1>
           <xm:sqref>D7:D26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{1A4BF519-A5F7-8544-81CD-DA460E2224E1}">
+          <x14:formula1>
+            <xm:f>Index!$A$2:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18515,7 +18518,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -20285,8 +20288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20331,8 +20334,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>88</v>
+      <c r="A2" s="32" t="s">
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -20344,131 +20347,129 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" t="s">
         <v>90</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>94</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -20476,100 +20477,100 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -20580,196 +20581,196 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
@@ -20777,1810 +20778,1810 @@
     </row>
     <row r="52" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D87" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D92" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D93" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D94" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="176" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="178" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="179" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="181" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="183" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="184" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="186" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="187" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="196" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="197" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="198" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="199" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="200" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="201" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="205" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="208" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="210" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="217" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="220" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="221" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="223" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="224" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D229" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="230" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="231" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="232" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="233" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="234" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="235" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D235" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="236" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="237" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="238" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="239" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D239" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="240" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D240" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D241" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="242" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D242" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="243" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D243" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="244" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="245" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D245" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="246" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D246" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="247" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D247" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="248" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D248" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="249" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D249" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="251" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D251" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="252" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="253" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="254" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D254" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="255" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="256" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="257" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D257" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D259" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="260" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D260" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="261" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="262" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="263" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D263" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="264" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D264" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="265" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="266" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D266" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="267" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D267" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="268" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D268" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="269" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="270" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="271" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="272" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="273" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D273" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="274" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D274" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="275" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="276" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D276" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="277" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="278" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="279" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="280" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="281" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D282" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="283" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="284" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D284" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="285" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="286" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="287" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D287" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="288" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D290" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D294" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D295" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D301" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="306" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="307" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="308" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="309" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="310" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D310" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="311" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="312" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="313" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="314" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D314" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="315" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="316" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="317" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D317" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="318" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="319" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="320" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="321" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="322" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="323" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D323" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="324" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D324" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="325" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="326" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D326" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="327" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D327" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="328" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D328" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="329" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="330" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D330" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="331" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D331" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="332" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="333" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="334" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="335" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D335" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="336" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="337" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="338" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="339" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="340" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D340" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="341" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="342" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="343" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="344" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="345" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="346" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D346" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="347" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D347" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="348" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="349" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D349" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="350" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="351" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D351" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="352" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D352" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="353" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="354" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D354" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="355" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="356" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D356" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="357" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D357" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="358" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D358" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="359" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D359" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="360" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D360" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="361" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D361" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="362" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="363" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D363" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="364" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D364" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="365" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="366" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D366" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="367" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="368" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D368" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="369" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D369" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="370" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D370" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="371" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D371" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="372" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D372" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="373" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D373" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="374" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D374" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="375" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D375" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="376" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D376" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="377" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D377" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="378" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D378" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="379" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D379" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="380" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D380" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="381" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D381" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="382" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D382" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="383" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D383" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="384" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D384" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="385" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="386" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarcelino/Desktop/freezeman/backend/fms_core/static/submission_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D9E75-8104-B84D-8B55-82239B541948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFA11E-F403-1342-965D-AE7699988CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1660" yWindow="-17560" windowWidth="27040" windowHeight="15780" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1660" yWindow="-17560" windowWidth="27040" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -1570,7 +1570,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1671,6 +1671,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1799,7 +1804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1827,7 +1832,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1858,9 +1862,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2245,9 +2251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2392,172 +2398,232 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="31" t="str">
+        <f>IF(A7&lt;&gt;"","axiom genetitan array","")</f>
+        <v/>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="31" t="str">
+        <f t="shared" ref="C8:C26" si="0">IF(A8&lt;&gt;"","axiom genetitan array","")</f>
+        <v/>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -2565,7 +2631,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -2573,7 +2639,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -2581,7 +2647,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
@@ -2589,7 +2655,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -2597,7 +2663,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -2605,7 +2671,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2613,7 +2679,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -2621,7 +2687,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
@@ -2629,7 +2695,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
@@ -2637,7 +2703,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
@@ -2645,7 +2711,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -2653,7 +2719,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
@@ -2661,7 +2727,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="14"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
@@ -2669,7 +2735,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="14"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
@@ -2677,7 +2743,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
@@ -2685,7 +2751,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
@@ -2693,7 +2759,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="14"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
@@ -2701,7 +2767,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -2709,7 +2775,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -2717,7 +2783,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
@@ -2725,7 +2791,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="14"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -2733,7 +2799,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="14"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
@@ -2741,7 +2807,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="14"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -2749,7 +2815,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
@@ -2757,7 +2823,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
@@ -2765,7 +2831,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="14"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
@@ -2773,7 +2839,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="14"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
@@ -2781,7 +2847,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="14"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
@@ -2789,7 +2855,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="14"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
@@ -2797,7 +2863,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="14"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
@@ -2805,7 +2871,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="14"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
@@ -2813,7 +2879,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="14"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
@@ -2821,7 +2887,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="14"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -2829,7 +2895,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="14"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
@@ -2837,7 +2903,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="14"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
@@ -2845,7 +2911,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="14"/>
+      <c r="F63" s="13"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
@@ -2853,7 +2919,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="14"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
@@ -2861,7 +2927,7 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="14"/>
+      <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
@@ -2869,7 +2935,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="14"/>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
@@ -2877,7 +2943,7 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="14"/>
+      <c r="F67" s="13"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
@@ -2885,7 +2951,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="14"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
@@ -2893,7 +2959,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="14"/>
+      <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
@@ -2901,7 +2967,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="14"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
@@ -2909,7 +2975,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="14"/>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
@@ -2917,7 +2983,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="14"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
@@ -2925,7 +2991,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="14"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
@@ -2933,7 +2999,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="14"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
@@ -2941,7 +3007,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="14"/>
+      <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
@@ -2949,7 +3015,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="14"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
@@ -2957,7 +3023,7 @@
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="14"/>
+      <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
@@ -2965,7 +3031,7 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="14"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
@@ -2973,7 +3039,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="14"/>
+      <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
@@ -2981,7 +3047,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="14"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
@@ -2989,7 +3055,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="14"/>
+      <c r="F81" s="13"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
@@ -2997,7 +3063,7 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="14"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
@@ -3005,7 +3071,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="14"/>
+      <c r="F83" s="13"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
@@ -3013,7 +3079,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="14"/>
+      <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
@@ -3021,7 +3087,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="14"/>
+      <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
@@ -3029,7 +3095,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="14"/>
+      <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
@@ -3037,7 +3103,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="14"/>
+      <c r="F87" s="13"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
@@ -3045,7 +3111,7 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="14"/>
+      <c r="F88" s="13"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
@@ -3053,7 +3119,7 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="14"/>
+      <c r="F89" s="13"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
@@ -3061,7 +3127,7 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="14"/>
+      <c r="F90" s="13"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
@@ -3069,7 +3135,7 @@
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="14"/>
+      <c r="F91" s="13"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
@@ -3077,7 +3143,7 @@
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="14"/>
+      <c r="F92" s="13"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
@@ -3085,7 +3151,7 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="14"/>
+      <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
@@ -3093,7 +3159,7 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="14"/>
+      <c r="F94" s="13"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
@@ -3101,7 +3167,7 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="14"/>
+      <c r="F95" s="13"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
@@ -3109,567 +3175,567 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="14"/>
+      <c r="F96" s="13"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
@@ -10315,21 +10381,15 @@
   <mergeCells count="1">
     <mergeCell ref="H5:K5"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C7:C26" xr:uid="{1A4BF519-A5F7-8544-81CD-DA460E2224E1}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Index!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C8:C26</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Index!$G$2:$G$3</xm:f>
@@ -10345,12 +10405,6 @@
           </x14:formula1>
           <xm:sqref>D7:D26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{1A4BF519-A5F7-8544-81CD-DA460E2224E1}">
-          <x14:formula1>
-            <xm:f>Index!$A$2:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -10363,7 +10417,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10385,10 +10439,10 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10412,14 +10466,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -10449,21 +10503,21 @@
       <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="32" t="str">
+      <c r="F5" s="31" t="str">
         <f>IF(B5&lt;&gt;"","ALL","")</f>
         <v/>
       </c>
-      <c r="G5" s="32" t="str">
+      <c r="G5" s="31" t="str">
         <f>IF(D5&lt;&gt;"",D5,"")</f>
         <v/>
       </c>
@@ -10472,7 +10526,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -10480,7 +10534,7 @@
         <f>IF(B6&lt;&gt;"","ALL","")</f>
         <v/>
       </c>
-      <c r="G6" s="32" t="str">
+      <c r="G6" s="31" t="str">
         <f t="shared" ref="G6:G69" si="0">IF(D6&lt;&gt;"",D6,"")</f>
         <v/>
       </c>
@@ -10497,7 +10551,7 @@
         <f t="shared" ref="F7:F70" si="1">IF(B7&lt;&gt;"","ALL","")</f>
         <v/>
       </c>
-      <c r="G7" s="32" t="str">
+      <c r="G7" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10514,7 +10568,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G8" s="32" t="str">
+      <c r="G8" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10531,7 +10585,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" s="32" t="str">
+      <c r="G9" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10548,7 +10602,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G10" s="32" t="str">
+      <c r="G10" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10565,7 +10619,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G11" s="32" t="str">
+      <c r="G11" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10582,7 +10636,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" s="32" t="str">
+      <c r="G12" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10599,7 +10653,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G13" s="32" t="str">
+      <c r="G13" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10616,7 +10670,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="32" t="str">
+      <c r="G14" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10633,7 +10687,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" s="32" t="str">
+      <c r="G15" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10650,7 +10704,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G16" s="32" t="str">
+      <c r="G16" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10667,7 +10721,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G17" s="32" t="str">
+      <c r="G17" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10684,7 +10738,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" s="32" t="str">
+      <c r="G18" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10695,13 +10749,13 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="32" t="str">
+      <c r="G19" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10718,7 +10772,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="32" t="str">
+      <c r="G20" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10735,7 +10789,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="32" t="str">
+      <c r="G21" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10752,7 +10806,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="32" t="str">
+      <c r="G22" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10769,7 +10823,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="32" t="str">
+      <c r="G23" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10786,7 +10840,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="32" t="str">
+      <c r="G24" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10803,7 +10857,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="32" t="str">
+      <c r="G25" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10820,7 +10874,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="32" t="str">
+      <c r="G26" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10837,7 +10891,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="32" t="str">
+      <c r="G27" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10854,7 +10908,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="32" t="str">
+      <c r="G28" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10871,7 +10925,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="32" t="str">
+      <c r="G29" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10888,7 +10942,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="32" t="str">
+      <c r="G30" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10905,7 +10959,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="32" t="str">
+      <c r="G31" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10922,7 +10976,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" s="32" t="str">
+      <c r="G32" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10939,7 +10993,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="32" t="str">
+      <c r="G33" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10956,7 +11010,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" s="32" t="str">
+      <c r="G34" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10973,7 +11027,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="32" t="str">
+      <c r="G35" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10990,7 +11044,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="32" t="str">
+      <c r="G36" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11007,7 +11061,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="32" t="str">
+      <c r="G37" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11024,7 +11078,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="32" t="str">
+      <c r="G38" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11041,7 +11095,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="32" t="str">
+      <c r="G39" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11058,7 +11112,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="32" t="str">
+      <c r="G40" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11075,7 +11129,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="32" t="str">
+      <c r="G41" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11092,7 +11146,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="32" t="str">
+      <c r="G42" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11109,7 +11163,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G43" s="32" t="str">
+      <c r="G43" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11126,7 +11180,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" s="32" t="str">
+      <c r="G44" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11143,7 +11197,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" s="32" t="str">
+      <c r="G45" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11160,7 +11214,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" s="32" t="str">
+      <c r="G46" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11177,7 +11231,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G47" s="32" t="str">
+      <c r="G47" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11194,7 +11248,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" s="32" t="str">
+      <c r="G48" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11211,7 +11265,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G49" s="32" t="str">
+      <c r="G49" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11228,7 +11282,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G50" s="32" t="str">
+      <c r="G50" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11245,7 +11299,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G51" s="32" t="str">
+      <c r="G51" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11262,7 +11316,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" s="32" t="str">
+      <c r="G52" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11279,7 +11333,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G53" s="32" t="str">
+      <c r="G53" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11296,7 +11350,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G54" s="32" t="str">
+      <c r="G54" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11313,7 +11367,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G55" s="32" t="str">
+      <c r="G55" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11330,7 +11384,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G56" s="32" t="str">
+      <c r="G56" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11347,7 +11401,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G57" s="32" t="str">
+      <c r="G57" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11364,7 +11418,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G58" s="32" t="str">
+      <c r="G58" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11381,7 +11435,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G59" s="32" t="str">
+      <c r="G59" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11398,7 +11452,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G60" s="32" t="str">
+      <c r="G60" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11415,7 +11469,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G61" s="32" t="str">
+      <c r="G61" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11432,7 +11486,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G62" s="32" t="str">
+      <c r="G62" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11449,7 +11503,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G63" s="32" t="str">
+      <c r="G63" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11466,7 +11520,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G64" s="32" t="str">
+      <c r="G64" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11483,7 +11537,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G65" s="32" t="str">
+      <c r="G65" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11500,7 +11554,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G66" s="32" t="str">
+      <c r="G66" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11517,7 +11571,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G67" s="32" t="str">
+      <c r="G67" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11534,7 +11588,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G68" s="32" t="str">
+      <c r="G68" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11551,7 +11605,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G69" s="32" t="str">
+      <c r="G69" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11568,7 +11622,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G70" s="32" t="str">
+      <c r="G70" s="31" t="str">
         <f t="shared" ref="G70:G104" si="2">IF(D70&lt;&gt;"",D70,"")</f>
         <v/>
       </c>
@@ -11585,7 +11639,7 @@
         <f t="shared" ref="F71:F104" si="3">IF(B71&lt;&gt;"","ALL","")</f>
         <v/>
       </c>
-      <c r="G71" s="32" t="str">
+      <c r="G71" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11602,7 +11656,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G72" s="32" t="str">
+      <c r="G72" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11619,7 +11673,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G73" s="32" t="str">
+      <c r="G73" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11636,7 +11690,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G74" s="32" t="str">
+      <c r="G74" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11653,7 +11707,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G75" s="32" t="str">
+      <c r="G75" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11670,7 +11724,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G76" s="32" t="str">
+      <c r="G76" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11687,7 +11741,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G77" s="32" t="str">
+      <c r="G77" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11704,7 +11758,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G78" s="32" t="str">
+      <c r="G78" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11721,7 +11775,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G79" s="32" t="str">
+      <c r="G79" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11738,7 +11792,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G80" s="32" t="str">
+      <c r="G80" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11755,7 +11809,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G81" s="32" t="str">
+      <c r="G81" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11772,7 +11826,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G82" s="32" t="str">
+      <c r="G82" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11789,7 +11843,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G83" s="32" t="str">
+      <c r="G83" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11806,7 +11860,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G84" s="32" t="str">
+      <c r="G84" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11823,7 +11877,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G85" s="32" t="str">
+      <c r="G85" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11840,7 +11894,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G86" s="32" t="str">
+      <c r="G86" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11857,7 +11911,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G87" s="32" t="str">
+      <c r="G87" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11874,7 +11928,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G88" s="32" t="str">
+      <c r="G88" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11891,7 +11945,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G89" s="32" t="str">
+      <c r="G89" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11908,7 +11962,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G90" s="32" t="str">
+      <c r="G90" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11925,7 +11979,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G91" s="32" t="str">
+      <c r="G91" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11942,7 +11996,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G92" s="32" t="str">
+      <c r="G92" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11959,7 +12013,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G93" s="32" t="str">
+      <c r="G93" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11976,7 +12030,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G94" s="32" t="str">
+      <c r="G94" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -11993,7 +12047,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G95" s="32" t="str">
+      <c r="G95" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12010,7 +12064,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G96" s="32" t="str">
+      <c r="G96" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12027,7 +12081,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G97" s="32" t="str">
+      <c r="G97" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12044,7 +12098,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G98" s="32" t="str">
+      <c r="G98" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12061,7 +12115,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G99" s="32" t="str">
+      <c r="G99" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12078,7 +12132,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G100" s="32" t="str">
+      <c r="G100" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12095,49 +12149,49 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G101" s="32" t="str">
+      <c r="G101" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="33"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G102" s="32" t="str">
+      <c r="G102" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
-      <c r="B103" s="33"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G103" s="32" t="str">
+      <c r="G103" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="33"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G104" s="32" t="str">
+      <c r="G104" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -18479,7 +18533,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18497,7 +18551,7 @@
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D1" t="s">
@@ -18508,16 +18562,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>476</v>
       </c>
       <c r="E2" t="s">
@@ -18525,1444 +18579,1444 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="str">
+      <c r="A3" s="20" t="str">
         <f>IF(Samples!$D5&lt;&gt;"", Samples!$D5,"")</f>
         <v/>
       </c>
-      <c r="B3" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C3" s="21" t="str">
+      <c r="B3" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C3" s="20" t="str">
         <f>IF(AND($D3&lt;&gt;"", $E3&lt;&gt;""), $D3&amp;"_"&amp;$E3, "")</f>
         <v/>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="str">
+      <c r="A4" s="20" t="str">
         <f>IF(Samples!$D6&lt;&gt;"", Samples!$D6,"")</f>
         <v/>
       </c>
-      <c r="B4" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C4" s="21" t="str">
+      <c r="B4" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C4" s="20" t="str">
         <f t="shared" ref="C4:C67" si="0">IF(AND($D4&lt;&gt;"", $E4&lt;&gt;""), $D4&amp;"_"&amp;$E4, "")</f>
         <v/>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="str">
+      <c r="A5" s="20" t="str">
         <f>IF(Samples!$D7&lt;&gt;"", Samples!$D7,"")</f>
         <v/>
       </c>
-      <c r="B5" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C5" s="21" t="str">
+      <c r="B5" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C5" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="str">
+      <c r="A6" s="20" t="str">
         <f>IF(Samples!$D8&lt;&gt;"", Samples!$D8,"")</f>
         <v/>
       </c>
-      <c r="B6" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C6" s="21" t="str">
+      <c r="B6" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C6" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="str">
+      <c r="A7" s="20" t="str">
         <f>IF(Samples!$D9&lt;&gt;"", Samples!$D9,"")</f>
         <v/>
       </c>
-      <c r="B7" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C7" s="21" t="str">
+      <c r="B7" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C7" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="str">
+      <c r="A8" s="20" t="str">
         <f>IF(Samples!$D10&lt;&gt;"", Samples!$D10,"")</f>
         <v/>
       </c>
-      <c r="B8" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="21" t="str">
+      <c r="B8" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C8" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="str">
+      <c r="A9" s="20" t="str">
         <f>IF(Samples!$D11&lt;&gt;"", Samples!$D11,"")</f>
         <v/>
       </c>
-      <c r="B9" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="21" t="str">
+      <c r="B9" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="str">
+      <c r="A10" s="20" t="str">
         <f>IF(Samples!$D12&lt;&gt;"", Samples!$D12,"")</f>
         <v/>
       </c>
-      <c r="B10" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="21" t="str">
+      <c r="B10" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C10" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="str">
+      <c r="A11" s="20" t="str">
         <f>IF(Samples!$D13&lt;&gt;"", Samples!$D13,"")</f>
         <v/>
       </c>
-      <c r="B11" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="21" t="str">
+      <c r="B11" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="str">
+      <c r="A12" s="20" t="str">
         <f>IF(Samples!$D14&lt;&gt;"", Samples!$D14,"")</f>
         <v/>
       </c>
-      <c r="B12" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="21" t="str">
+      <c r="B12" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="str">
+      <c r="A13" s="20" t="str">
         <f>IF(Samples!$D15&lt;&gt;"", Samples!$D15,"")</f>
         <v/>
       </c>
-      <c r="B13" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C13" s="21" t="str">
+      <c r="B13" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="str">
+      <c r="A14" s="20" t="str">
         <f>IF(Samples!$D16&lt;&gt;"", Samples!$D16,"")</f>
         <v/>
       </c>
-      <c r="B14" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="21" t="str">
+      <c r="B14" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="str">
+      <c r="A15" s="20" t="str">
         <f>IF(Samples!$D17&lt;&gt;"", Samples!$D17,"")</f>
         <v/>
       </c>
-      <c r="B15" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C15" s="21" t="str">
+      <c r="B15" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="str">
+      <c r="A16" s="20" t="str">
         <f>IF(Samples!$D18&lt;&gt;"", Samples!$D18,"")</f>
         <v/>
       </c>
-      <c r="B16" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C16" s="21" t="str">
+      <c r="B16" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="str">
+      <c r="A17" s="20" t="str">
         <f>IF(Samples!$D19&lt;&gt;"", Samples!$D19,"")</f>
         <v/>
       </c>
-      <c r="B17" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C17" s="21" t="str">
+      <c r="B17" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="str">
+      <c r="A18" s="20" t="str">
         <f>IF(Samples!$D20&lt;&gt;"", Samples!$D20,"")</f>
         <v/>
       </c>
-      <c r="B18" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="21" t="str">
+      <c r="B18" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="32"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="str">
+      <c r="A19" s="20" t="str">
         <f>IF(Samples!$D21&lt;&gt;"", Samples!$D21,"")</f>
         <v/>
       </c>
-      <c r="B19" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C19" s="21" t="str">
+      <c r="B19" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="str">
+      <c r="A20" s="20" t="str">
         <f>IF(Samples!$D22&lt;&gt;"", Samples!$D22,"")</f>
         <v/>
       </c>
-      <c r="B20" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C20" s="21" t="str">
+      <c r="B20" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="str">
+      <c r="A21" s="20" t="str">
         <f>IF(Samples!$D23&lt;&gt;"", Samples!$D23,"")</f>
         <v/>
       </c>
-      <c r="B21" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C21" s="21" t="str">
+      <c r="B21" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="str">
+      <c r="A22" s="20" t="str">
         <f>IF(Samples!$D24&lt;&gt;"", Samples!$D24,"")</f>
         <v/>
       </c>
-      <c r="B22" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C22" s="21" t="str">
+      <c r="B22" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="str">
+      <c r="A23" s="20" t="str">
         <f>IF(Samples!$D25&lt;&gt;"", Samples!$D25,"")</f>
         <v/>
       </c>
-      <c r="B23" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C23" s="21" t="str">
+      <c r="B23" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="str">
+      <c r="A24" s="20" t="str">
         <f>IF(Samples!$D26&lt;&gt;"", Samples!$D26,"")</f>
         <v/>
       </c>
-      <c r="B24" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C24" s="21" t="str">
+      <c r="B24" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="str">
+      <c r="A25" s="20" t="str">
         <f>IF(Samples!$D27&lt;&gt;"", Samples!$D27,"")</f>
         <v/>
       </c>
-      <c r="B25" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C25" s="21" t="str">
+      <c r="B25" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="str">
+      <c r="A26" s="20" t="str">
         <f>IF(Samples!$D28&lt;&gt;"", Samples!$D28,"")</f>
         <v/>
       </c>
-      <c r="B26" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C26" s="21" t="str">
+      <c r="B26" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="str">
+      <c r="A27" s="20" t="str">
         <f>IF(Samples!$D29&lt;&gt;"", Samples!$D29,"")</f>
         <v/>
       </c>
-      <c r="B27" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C27" s="21" t="str">
+      <c r="B27" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="str">
+      <c r="A28" s="20" t="str">
         <f>IF(Samples!$D30&lt;&gt;"", Samples!$D30,"")</f>
         <v/>
       </c>
-      <c r="B28" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C28" s="21" t="str">
+      <c r="B28" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="str">
+      <c r="A29" s="20" t="str">
         <f>IF(Samples!$D31&lt;&gt;"", Samples!$D31,"")</f>
         <v/>
       </c>
-      <c r="B29" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="21" t="str">
+      <c r="B29" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="str">
+      <c r="A30" s="20" t="str">
         <f>IF(Samples!$D32&lt;&gt;"", Samples!$D32,"")</f>
         <v/>
       </c>
-      <c r="B30" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="21" t="str">
+      <c r="B30" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="str">
+      <c r="A31" s="20" t="str">
         <f>IF(Samples!$D33&lt;&gt;"", Samples!$D33,"")</f>
         <v/>
       </c>
-      <c r="B31" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="21" t="str">
+      <c r="B31" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="str">
+      <c r="A32" s="20" t="str">
         <f>IF(Samples!$D34&lt;&gt;"", Samples!$D34,"")</f>
         <v/>
       </c>
-      <c r="B32" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="21" t="str">
+      <c r="B32" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="str">
+      <c r="A33" s="20" t="str">
         <f>IF(Samples!$D35&lt;&gt;"", Samples!$D35,"")</f>
         <v/>
       </c>
-      <c r="B33" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C33" s="21" t="str">
+      <c r="B33" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="str">
+      <c r="A34" s="20" t="str">
         <f>IF(Samples!$D36&lt;&gt;"", Samples!$D36,"")</f>
         <v/>
       </c>
-      <c r="B34" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C34" s="21" t="str">
+      <c r="B34" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C34" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="str">
+      <c r="A35" s="20" t="str">
         <f>IF(Samples!$D37&lt;&gt;"", Samples!$D37,"")</f>
         <v/>
       </c>
-      <c r="B35" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C35" s="21" t="str">
+      <c r="B35" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C35" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="str">
+      <c r="A36" s="20" t="str">
         <f>IF(Samples!$D38&lt;&gt;"", Samples!$D38,"")</f>
         <v/>
       </c>
-      <c r="B36" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C36" s="21" t="str">
+      <c r="B36" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C36" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="str">
+      <c r="A37" s="20" t="str">
         <f>IF(Samples!$D39&lt;&gt;"", Samples!$D39,"")</f>
         <v/>
       </c>
-      <c r="B37" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C37" s="21" t="str">
+      <c r="B37" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C37" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="str">
+      <c r="A38" s="20" t="str">
         <f>IF(Samples!$D40&lt;&gt;"", Samples!$D40,"")</f>
         <v/>
       </c>
-      <c r="B38" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C38" s="21" t="str">
+      <c r="B38" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="str">
+      <c r="A39" s="20" t="str">
         <f>IF(Samples!$D41&lt;&gt;"", Samples!$D41,"")</f>
         <v/>
       </c>
-      <c r="B39" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C39" s="21" t="str">
+      <c r="B39" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="str">
+      <c r="A40" s="20" t="str">
         <f>IF(Samples!$D42&lt;&gt;"", Samples!$D42,"")</f>
         <v/>
       </c>
-      <c r="B40" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C40" s="21" t="str">
+      <c r="B40" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C40" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="str">
+      <c r="A41" s="20" t="str">
         <f>IF(Samples!$D43&lt;&gt;"", Samples!$D43,"")</f>
         <v/>
       </c>
-      <c r="B41" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C41" s="21" t="str">
+      <c r="B41" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C41" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="str">
+      <c r="A42" s="20" t="str">
         <f>IF(Samples!$D44&lt;&gt;"", Samples!$D44,"")</f>
         <v/>
       </c>
-      <c r="B42" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C42" s="21" t="str">
+      <c r="B42" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C42" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="str">
+      <c r="A43" s="20" t="str">
         <f>IF(Samples!$D45&lt;&gt;"", Samples!$D45,"")</f>
         <v/>
       </c>
-      <c r="B43" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C43" s="21" t="str">
+      <c r="B43" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C43" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="str">
+      <c r="A44" s="20" t="str">
         <f>IF(Samples!$D46&lt;&gt;"", Samples!$D46,"")</f>
         <v/>
       </c>
-      <c r="B44" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C44" s="21" t="str">
+      <c r="B44" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C44" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="str">
+      <c r="A45" s="20" t="str">
         <f>IF(Samples!$D47&lt;&gt;"", Samples!$D47,"")</f>
         <v/>
       </c>
-      <c r="B45" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C45" s="21" t="str">
+      <c r="B45" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C45" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="32"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="str">
+      <c r="A46" s="20" t="str">
         <f>IF(Samples!$D48&lt;&gt;"", Samples!$D48,"")</f>
         <v/>
       </c>
-      <c r="B46" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C46" s="21" t="str">
+      <c r="B46" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C46" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D46" s="32"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="str">
+      <c r="A47" s="20" t="str">
         <f>IF(Samples!$D49&lt;&gt;"", Samples!$D49,"")</f>
         <v/>
       </c>
-      <c r="B47" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C47" s="21" t="str">
+      <c r="B47" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C47" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="32"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="str">
+      <c r="A48" s="20" t="str">
         <f>IF(Samples!$D50&lt;&gt;"", Samples!$D50,"")</f>
         <v/>
       </c>
-      <c r="B48" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C48" s="21" t="str">
+      <c r="B48" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C48" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="str">
+      <c r="A49" s="20" t="str">
         <f>IF(Samples!$D51&lt;&gt;"", Samples!$D51,"")</f>
         <v/>
       </c>
-      <c r="B49" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C49" s="21" t="str">
+      <c r="B49" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C49" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="str">
+      <c r="A50" s="20" t="str">
         <f>IF(Samples!$D52&lt;&gt;"", Samples!$D52,"")</f>
         <v/>
       </c>
-      <c r="B50" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C50" s="21" t="str">
+      <c r="B50" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C50" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="str">
+      <c r="A51" s="20" t="str">
         <f>IF(Samples!$D53&lt;&gt;"", Samples!$D53,"")</f>
         <v/>
       </c>
-      <c r="B51" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C51" s="21" t="str">
+      <c r="B51" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C51" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D51" s="32"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="str">
+      <c r="A52" s="20" t="str">
         <f>IF(Samples!$D54&lt;&gt;"", Samples!$D54,"")</f>
         <v/>
       </c>
-      <c r="B52" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C52" s="21" t="str">
+      <c r="B52" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C52" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="str">
+      <c r="A53" s="20" t="str">
         <f>IF(Samples!$D55&lt;&gt;"", Samples!$D55,"")</f>
         <v/>
       </c>
-      <c r="B53" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C53" s="21" t="str">
+      <c r="B53" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C53" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D53" s="32"/>
+      <c r="D53" s="31"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="str">
+      <c r="A54" s="20" t="str">
         <f>IF(Samples!$D56&lt;&gt;"", Samples!$D56,"")</f>
         <v/>
       </c>
-      <c r="B54" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C54" s="21" t="str">
+      <c r="B54" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C54" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D54" s="32"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="str">
+      <c r="A55" s="20" t="str">
         <f>IF(Samples!$D57&lt;&gt;"", Samples!$D57,"")</f>
         <v/>
       </c>
-      <c r="B55" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C55" s="21" t="str">
+      <c r="B55" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C55" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" s="32"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="str">
+      <c r="A56" s="20" t="str">
         <f>IF(Samples!$D58&lt;&gt;"", Samples!$D58,"")</f>
         <v/>
       </c>
-      <c r="B56" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C56" s="21" t="str">
+      <c r="B56" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C56" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="str">
+      <c r="A57" s="20" t="str">
         <f>IF(Samples!$D59&lt;&gt;"", Samples!$D59,"")</f>
         <v/>
       </c>
-      <c r="B57" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C57" s="21" t="str">
+      <c r="B57" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C57" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="str">
+      <c r="A58" s="20" t="str">
         <f>IF(Samples!$D60&lt;&gt;"", Samples!$D60,"")</f>
         <v/>
       </c>
-      <c r="B58" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C58" s="21" t="str">
+      <c r="B58" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C58" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D58" s="32"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="str">
+      <c r="A59" s="20" t="str">
         <f>IF(Samples!$D61&lt;&gt;"", Samples!$D61,"")</f>
         <v/>
       </c>
-      <c r="B59" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C59" s="21" t="str">
+      <c r="B59" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C59" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="32"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="str">
+      <c r="A60" s="20" t="str">
         <f>IF(Samples!$D62&lt;&gt;"", Samples!$D62,"")</f>
         <v/>
       </c>
-      <c r="B60" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C60" s="21" t="str">
+      <c r="B60" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C60" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D60" s="32"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="str">
+      <c r="A61" s="20" t="str">
         <f>IF(Samples!$D63&lt;&gt;"", Samples!$D63,"")</f>
         <v/>
       </c>
-      <c r="B61" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C61" s="21" t="str">
+      <c r="B61" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C61" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" s="32"/>
+      <c r="D61" s="31"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="str">
+      <c r="A62" s="20" t="str">
         <f>IF(Samples!$D64&lt;&gt;"", Samples!$D64,"")</f>
         <v/>
       </c>
-      <c r="B62" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C62" s="21" t="str">
+      <c r="B62" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C62" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D62" s="32"/>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="str">
+      <c r="A63" s="20" t="str">
         <f>IF(Samples!$D65&lt;&gt;"", Samples!$D65,"")</f>
         <v/>
       </c>
-      <c r="B63" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C63" s="21" t="str">
+      <c r="B63" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C63" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" s="32"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="str">
+      <c r="A64" s="20" t="str">
         <f>IF(Samples!$D66&lt;&gt;"", Samples!$D66,"")</f>
         <v/>
       </c>
-      <c r="B64" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C64" s="21" t="str">
+      <c r="B64" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C64" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="str">
+      <c r="A65" s="20" t="str">
         <f>IF(Samples!$D67&lt;&gt;"", Samples!$D67,"")</f>
         <v/>
       </c>
-      <c r="B65" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C65" s="21" t="str">
+      <c r="B65" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C65" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D65" s="32"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="str">
+      <c r="A66" s="20" t="str">
         <f>IF(Samples!$D68&lt;&gt;"", Samples!$D68,"")</f>
         <v/>
       </c>
-      <c r="B66" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C66" s="21" t="str">
+      <c r="B66" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C66" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D66" s="32"/>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="str">
+      <c r="A67" s="20" t="str">
         <f>IF(Samples!$D69&lt;&gt;"", Samples!$D69,"")</f>
         <v/>
       </c>
-      <c r="B67" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C67" s="21" t="str">
+      <c r="B67" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C67" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D67" s="32"/>
+      <c r="D67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="str">
+      <c r="A68" s="20" t="str">
         <f>IF(Samples!$D70&lt;&gt;"", Samples!$D70,"")</f>
         <v/>
       </c>
-      <c r="B68" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C68" s="21" t="str">
+      <c r="B68" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C68" s="20" t="str">
         <f t="shared" ref="C68:C98" si="1">IF(AND($D68&lt;&gt;"", $E68&lt;&gt;""), $D68&amp;"_"&amp;$E68, "")</f>
         <v/>
       </c>
-      <c r="D68" s="32"/>
+      <c r="D68" s="31"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="str">
+      <c r="A69" s="20" t="str">
         <f>IF(Samples!$D71&lt;&gt;"", Samples!$D71,"")</f>
         <v/>
       </c>
-      <c r="B69" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C69" s="21" t="str">
+      <c r="B69" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C69" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D69" s="32"/>
+      <c r="D69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="str">
+      <c r="A70" s="20" t="str">
         <f>IF(Samples!$D72&lt;&gt;"", Samples!$D72,"")</f>
         <v/>
       </c>
-      <c r="B70" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C70" s="21" t="str">
+      <c r="B70" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C70" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="32"/>
+      <c r="D70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="str">
+      <c r="A71" s="20" t="str">
         <f>IF(Samples!$D73&lt;&gt;"", Samples!$D73,"")</f>
         <v/>
       </c>
-      <c r="B71" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C71" s="21" t="str">
+      <c r="B71" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C71" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D71" s="32"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="str">
+      <c r="A72" s="20" t="str">
         <f>IF(Samples!$D74&lt;&gt;"", Samples!$D74,"")</f>
         <v/>
       </c>
-      <c r="B72" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C72" s="21" t="str">
+      <c r="B72" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C72" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="31"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="str">
+      <c r="A73" s="20" t="str">
         <f>IF(Samples!$D75&lt;&gt;"", Samples!$D75,"")</f>
         <v/>
       </c>
-      <c r="B73" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C73" s="21" t="str">
+      <c r="B73" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C73" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="str">
+      <c r="A74" s="20" t="str">
         <f>IF(Samples!$D76&lt;&gt;"", Samples!$D76,"")</f>
         <v/>
       </c>
-      <c r="B74" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C74" s="21" t="str">
+      <c r="B74" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C74" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="32"/>
+      <c r="D74" s="31"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="21" t="str">
+      <c r="A75" s="20" t="str">
         <f>IF(Samples!$D77&lt;&gt;"", Samples!$D77,"")</f>
         <v/>
       </c>
-      <c r="B75" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C75" s="21" t="str">
+      <c r="B75" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C75" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D75" s="32"/>
+      <c r="D75" s="31"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="str">
+      <c r="A76" s="20" t="str">
         <f>IF(Samples!$D78&lt;&gt;"", Samples!$D78,"")</f>
         <v/>
       </c>
-      <c r="B76" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C76" s="21" t="str">
+      <c r="B76" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C76" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D76" s="32"/>
+      <c r="D76" s="31"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="21" t="str">
+      <c r="A77" s="20" t="str">
         <f>IF(Samples!$D79&lt;&gt;"", Samples!$D79,"")</f>
         <v/>
       </c>
-      <c r="B77" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C77" s="21" t="str">
+      <c r="B77" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C77" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D77" s="32"/>
+      <c r="D77" s="31"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="str">
+      <c r="A78" s="20" t="str">
         <f>IF(Samples!$D80&lt;&gt;"", Samples!$D80,"")</f>
         <v/>
       </c>
-      <c r="B78" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C78" s="21" t="str">
+      <c r="B78" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C78" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D78" s="32"/>
+      <c r="D78" s="31"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21" t="str">
+      <c r="A79" s="20" t="str">
         <f>IF(Samples!$D81&lt;&gt;"", Samples!$D81,"")</f>
         <v/>
       </c>
-      <c r="B79" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C79" s="21" t="str">
+      <c r="B79" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C79" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D79" s="32"/>
+      <c r="D79" s="31"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="str">
+      <c r="A80" s="20" t="str">
         <f>IF(Samples!$D82&lt;&gt;"", Samples!$D82,"")</f>
         <v/>
       </c>
-      <c r="B80" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C80" s="21" t="str">
+      <c r="B80" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C80" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D80" s="32"/>
+      <c r="D80" s="31"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="str">
+      <c r="A81" s="20" t="str">
         <f>IF(Samples!$D83&lt;&gt;"", Samples!$D83,"")</f>
         <v/>
       </c>
-      <c r="B81" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C81" s="21" t="str">
+      <c r="B81" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C81" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="32"/>
+      <c r="D81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="str">
+      <c r="A82" s="20" t="str">
         <f>IF(Samples!$D84&lt;&gt;"", Samples!$D84,"")</f>
         <v/>
       </c>
-      <c r="B82" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C82" s="21" t="str">
+      <c r="B82" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C82" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D82" s="32"/>
+      <c r="D82" s="31"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="str">
+      <c r="A83" s="20" t="str">
         <f>IF(Samples!$D85&lt;&gt;"", Samples!$D85,"")</f>
         <v/>
       </c>
-      <c r="B83" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C83" s="21" t="str">
+      <c r="B83" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C83" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D83" s="32"/>
+      <c r="D83" s="31"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="str">
+      <c r="A84" s="20" t="str">
         <f>IF(Samples!$D86&lt;&gt;"", Samples!$D86,"")</f>
         <v/>
       </c>
-      <c r="B84" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C84" s="21" t="str">
+      <c r="B84" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C84" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D84" s="32"/>
+      <c r="D84" s="31"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="21" t="str">
+      <c r="A85" s="20" t="str">
         <f>IF(Samples!$D87&lt;&gt;"", Samples!$D87,"")</f>
         <v/>
       </c>
-      <c r="B85" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C85" s="21" t="str">
+      <c r="B85" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C85" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D85" s="32"/>
+      <c r="D85" s="31"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="str">
+      <c r="A86" s="20" t="str">
         <f>IF(Samples!$D88&lt;&gt;"", Samples!$D88,"")</f>
         <v/>
       </c>
-      <c r="B86" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C86" s="21" t="str">
+      <c r="B86" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C86" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D86" s="32"/>
+      <c r="D86" s="31"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="str">
+      <c r="A87" s="20" t="str">
         <f>IF(Samples!$D89&lt;&gt;"", Samples!$D89,"")</f>
         <v/>
       </c>
-      <c r="B87" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C87" s="21" t="str">
+      <c r="B87" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C87" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D87" s="32"/>
+      <c r="D87" s="31"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="str">
+      <c r="A88" s="20" t="str">
         <f>IF(Samples!$D90&lt;&gt;"", Samples!$D90,"")</f>
         <v/>
       </c>
-      <c r="B88" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C88" s="21" t="str">
+      <c r="B88" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C88" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D88" s="32"/>
+      <c r="D88" s="31"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="str">
+      <c r="A89" s="20" t="str">
         <f>IF(Samples!$D91&lt;&gt;"", Samples!$D91,"")</f>
         <v/>
       </c>
-      <c r="B89" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C89" s="21" t="str">
+      <c r="B89" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C89" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D89" s="32"/>
+      <c r="D89" s="31"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="21" t="str">
+      <c r="A90" s="20" t="str">
         <f>IF(Samples!$D92&lt;&gt;"", Samples!$D92,"")</f>
         <v/>
       </c>
-      <c r="B90" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C90" s="21" t="str">
+      <c r="B90" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C90" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D90" s="32"/>
+      <c r="D90" s="31"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="str">
+      <c r="A91" s="20" t="str">
         <f>IF(Samples!$D93&lt;&gt;"", Samples!$D93,"")</f>
         <v/>
       </c>
-      <c r="B91" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C91" s="21" t="str">
+      <c r="B91" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C91" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D91" s="32"/>
+      <c r="D91" s="31"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="str">
+      <c r="A92" s="20" t="str">
         <f>IF(Samples!$D94&lt;&gt;"", Samples!$D94,"")</f>
         <v/>
       </c>
-      <c r="B92" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C92" s="21" t="str">
+      <c r="B92" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C92" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D92" s="32"/>
+      <c r="D92" s="31"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="21" t="str">
+      <c r="A93" s="20" t="str">
         <f>IF(Samples!$D95&lt;&gt;"", Samples!$D95,"")</f>
         <v/>
       </c>
-      <c r="B93" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C93" s="21" t="str">
+      <c r="B93" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C93" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D93" s="32"/>
+      <c r="D93" s="31"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="str">
+      <c r="A94" s="20" t="str">
         <f>IF(Samples!$D96&lt;&gt;"", Samples!$D96,"")</f>
         <v/>
       </c>
-      <c r="B94" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C94" s="21" t="str">
+      <c r="B94" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C94" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D94" s="32"/>
+      <c r="D94" s="31"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="str">
+      <c r="A95" s="20" t="str">
         <f>IF(Samples!$D97&lt;&gt;"", Samples!$D97,"")</f>
         <v/>
       </c>
-      <c r="B95" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C95" s="21" t="str">
+      <c r="B95" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C95" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D95" s="32"/>
+      <c r="D95" s="31"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="str">
+      <c r="A96" s="20" t="str">
         <f>IF(Samples!$D98&lt;&gt;"", Samples!$D98,"")</f>
         <v/>
       </c>
-      <c r="B96" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C96" s="21" t="str">
+      <c r="B96" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C96" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D96" s="32"/>
+      <c r="D96" s="31"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="21" t="str">
+      <c r="A97" s="20" t="str">
         <f>IF(Samples!$D99&lt;&gt;"", Samples!$D99,"")</f>
         <v/>
       </c>
-      <c r="B97" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C97" s="21" t="str">
+      <c r="B97" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C97" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D97" s="32"/>
+      <c r="D97" s="31"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="21" t="str">
+      <c r="A98" s="20" t="str">
         <f>IF(Samples!$D100&lt;&gt;"", Samples!$D100,"")</f>
         <v/>
       </c>
-      <c r="B98" s="21" t="str">
-        <f>IF(Experiments!$B$15&lt;&gt;"", Experiments!$B$15,"")</f>
-        <v/>
-      </c>
-      <c r="C98" s="21" t="str">
+      <c r="B98" s="20" t="str">
+        <f>IF(Experiments!$B$7&lt;&gt;"", Experiments!$B$7,"")</f>
+        <v/>
+      </c>
+      <c r="C98" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D98" s="32"/>
+      <c r="D98" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -19986,7 +20040,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -20006,273 +20060,273 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="28"/>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="28"/>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="29"/>
+      <c r="C32" s="28"/>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="28"/>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="29"/>
+      <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="29"/>
+      <c r="C35" s="28"/>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="28"/>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="28"/>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="29"/>
+      <c r="C38" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -20288,7 +20342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20334,7 +20388,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>478</v>
       </c>
       <c r="B2" t="s">
@@ -20349,10 +20403,10 @@
       <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>89</v>
       </c>
       <c r="J2" t="s">
@@ -20360,7 +20414,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
         <v>91</v>
       </c>
@@ -20373,10 +20427,10 @@
       <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>93</v>
       </c>
       <c r="J3" t="s">

--- a/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarcelino/Desktop/freezeman/backend/fms_core/static/submission_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFA11E-F403-1342-965D-AE7699988CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5357F85D-67D2-9540-8540-3207947F0A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1660" yWindow="-17560" windowWidth="27040" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1660" yWindow="-17560" windowWidth="27040" windowHeight="15780" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="454">
   <si>
     <t>Experiment Submission Template</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>Prefill</t>
-  </si>
-  <si>
     <t>Coord</t>
   </si>
   <si>
@@ -228,18 +225,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Experiment run DNBSEQ template instructions</t>
-  </si>
-  <si>
-    <t>Experiment run DNBSEQ template will store information related the the experiment run itself for the DNBSEQ platform. The libraries used need to be compatible with DNBSEQ sequencers.</t>
-  </si>
-  <si>
-    <t>Fill the Experiments page with the information common to all samples in each experiment, then detail information specific to each sample on the Samples page.</t>
-  </si>
-  <si>
-    <t>If a sample appears in more than one experiment, enter multiple entries with the information pertaining to each experiment with the appropriate experiment ID.</t>
-  </si>
-  <si>
     <t>Details on fields</t>
   </si>
   <si>
@@ -264,78 +249,9 @@
     <t>Additional information related to the current experiment as a whole.</t>
   </si>
   <si>
-    <t>Flowcell Lot</t>
-  </si>
-  <si>
-    <t>Lot of the flowcell.</t>
-  </si>
-  <si>
     <t>Loading Method</t>
   </si>
   <si>
-    <t>Loading method.</t>
-  </si>
-  <si>
-    <t>Sequencer Side</t>
-  </si>
-  <si>
-    <t>Sequencer side.</t>
-  </si>
-  <si>
-    <t>Sequencer Kit Used</t>
-  </si>
-  <si>
-    <t>Sequencer kit used.</t>
-  </si>
-  <si>
-    <t>Sequencer Kit Lot</t>
-  </si>
-  <si>
-    <t>Lot of the sequencer kit.</t>
-  </si>
-  <si>
-    <t>Load DNB Cartridge Lot</t>
-  </si>
-  <si>
-    <t>Lot of the load DNB cartridge.</t>
-  </si>
-  <si>
-    <t>Primer Kit</t>
-  </si>
-  <si>
-    <t>Primer kit used. Only required if a primer kit was used.</t>
-  </si>
-  <si>
-    <t>Primer Kit Lot</t>
-  </si>
-  <si>
-    <t>Lot of the primer kit. Only required if a primer kit was used.</t>
-  </si>
-  <si>
-    <t>Read 1 Cycles</t>
-  </si>
-  <si>
-    <t>Number of sequencer cycles allocated to Read 1.</t>
-  </si>
-  <si>
-    <t>Read 2 Cycles</t>
-  </si>
-  <si>
-    <t>Number of sequencer cycles allocated to Read 2. Only required for experiment runs using Read 2.</t>
-  </si>
-  <si>
-    <t>Index 1 Cycles</t>
-  </si>
-  <si>
-    <t>Number of sequencer cycles allocated to Index 1. Associated to the index setup used.</t>
-  </si>
-  <si>
-    <t>Index 2 Cycles</t>
-  </si>
-  <si>
-    <t>Number of sequencer cycles allocated to Index 2. Associated to the index setup used.</t>
-  </si>
-  <si>
     <t>Samples</t>
   </si>
   <si>
@@ -1561,6 +1477,9 @@
   </si>
   <si>
     <t>OnNetwork</t>
+  </si>
+  <si>
+    <t>Experiment run AXIOM template instructions</t>
   </si>
 </sst>
 </file>
@@ -1863,10 +1782,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2251,9 +2170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2355,12 +2274,12 @@
       <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -2381,16 +2300,16 @@
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="12" t="s">
@@ -10415,7 +10334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -10508,7 +10427,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="32"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -18532,9 +18451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18544,38 +18461,24 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -20032,7 +19935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20041,27 +19946,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -20069,7 +19965,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" s="24"/>
     </row>
@@ -20078,7 +19974,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" s="28"/>
     </row>
@@ -20087,7 +19983,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="28"/>
     </row>
@@ -20096,7 +19992,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" s="28"/>
     </row>
@@ -20105,7 +20001,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="28"/>
     </row>
@@ -20114,7 +20010,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C14" s="28"/>
     </row>
@@ -20123,116 +20019,78 @@
         <v>13</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>49</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>51</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B17" s="27"/>
       <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>53</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B18" s="27"/>
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>55</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B19" s="27"/>
       <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>57</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B20" s="27"/>
       <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>59</v>
-      </c>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>61</v>
-      </c>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>63</v>
-      </c>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="28"/>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>67</v>
-      </c>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>69</v>
-      </c>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="28"/>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>71</v>
-      </c>
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -20242,7 +20100,7 @@
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -20252,7 +20110,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C30" s="28"/>
     </row>
@@ -20261,7 +20119,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C31" s="28"/>
     </row>
@@ -20270,7 +20128,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C32" s="28"/>
     </row>
@@ -20279,16 +20137,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C33" s="28"/>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C34" s="28"/>
     </row>
@@ -20297,7 +20155,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C35" s="28"/>
     </row>
@@ -20306,7 +20164,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C36" s="28"/>
     </row>
@@ -20315,7 +20173,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C37" s="28"/>
     </row>
@@ -20324,7 +20182,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C38" s="28"/>
     </row>
@@ -20342,8 +20200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20363,25 +20221,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
         <v>26</v>
@@ -20389,7 +20247,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -20401,129 +20259,129 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -20531,100 +20389,100 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -20635,196 +20493,196 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
@@ -20832,1810 +20690,1810 @@
     </row>
     <row r="52" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D88" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="D92" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="D93" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
     <row r="161" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="166" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="183" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="185" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="186" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
     </row>
     <row r="189" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="194" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="199" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
     </row>
     <row r="200" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="201" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
     </row>
     <row r="202" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
     </row>
     <row r="203" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
     </row>
     <row r="204" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
     </row>
     <row r="205" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
     </row>
     <row r="206" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
     </row>
     <row r="208" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
     </row>
     <row r="209" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="210" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
     </row>
     <row r="211" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
     </row>
     <row r="212" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="217" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="219" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
     </row>
     <row r="220" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="221" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
     </row>
     <row r="222" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="223" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
     <row r="224" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
     </row>
     <row r="225" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
     </row>
     <row r="226" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="227" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="228" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="229" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D229" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
     </row>
     <row r="230" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
     </row>
     <row r="231" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="232" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="233" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="234" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
     </row>
     <row r="235" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D235" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="236" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
     </row>
     <row r="237" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
     </row>
     <row r="238" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D239" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="240" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D240" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
     </row>
     <row r="241" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D241" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
     </row>
     <row r="242" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D242" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="243" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D243" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
     <row r="244" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
     </row>
     <row r="245" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D245" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="246" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D246" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
     </row>
     <row r="247" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D247" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
     </row>
     <row r="248" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D248" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="249" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D249" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="250" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
     </row>
     <row r="251" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D251" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
     </row>
     <row r="252" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D254" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="255" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
     </row>
     <row r="256" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="257" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D257" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
     </row>
     <row r="258" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
     </row>
     <row r="259" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D259" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
     <row r="260" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D260" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="261" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="262" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="263" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D263" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
     <row r="264" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D264" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="265" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
     </row>
     <row r="266" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D266" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
     </row>
     <row r="267" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D267" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="268" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D268" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
     </row>
     <row r="269" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="270" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
     </row>
     <row r="271" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
     </row>
     <row r="272" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
     </row>
     <row r="273" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D273" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="274" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D274" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="275" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
     </row>
     <row r="276" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D276" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
     </row>
     <row r="277" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
     </row>
     <row r="278" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
     </row>
     <row r="279" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="280" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
     </row>
     <row r="281" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="282" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D282" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
     </row>
     <row r="283" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D284" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="285" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="286" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
     </row>
     <row r="287" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D287" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
     </row>
     <row r="288" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
     </row>
     <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D290" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
     </row>
     <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
     </row>
     <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
     </row>
     <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
     </row>
     <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D294" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
     </row>
     <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D295" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
     </row>
     <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
     </row>
     <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
     </row>
     <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
     </row>
     <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
     </row>
     <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D301" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
     </row>
     <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
     <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
     </row>
     <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
     </row>
     <row r="306" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
     </row>
     <row r="307" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
     </row>
     <row r="308" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
     </row>
     <row r="309" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
     </row>
     <row r="310" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D310" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
     </row>
     <row r="311" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
     </row>
     <row r="312" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
     </row>
     <row r="313" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
     </row>
     <row r="314" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D314" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
     </row>
     <row r="315" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
     </row>
     <row r="316" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="317" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D317" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
     </row>
     <row r="318" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
     </row>
     <row r="319" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
     </row>
     <row r="320" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
     </row>
     <row r="321" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
     </row>
     <row r="322" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
     </row>
     <row r="323" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D323" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
     </row>
     <row r="324" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D324" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
     </row>
     <row r="325" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="326" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D326" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
     </row>
     <row r="327" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D327" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
     </row>
     <row r="328" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D328" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="329" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
     </row>
     <row r="330" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D330" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
     </row>
     <row r="331" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D331" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
     </row>
     <row r="332" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
     </row>
     <row r="333" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
     </row>
     <row r="334" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
     </row>
     <row r="335" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D335" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
     </row>
     <row r="336" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="337" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
     </row>
     <row r="338" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
     </row>
     <row r="339" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
     </row>
     <row r="340" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D340" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
     </row>
     <row r="341" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
     </row>
     <row r="342" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
     </row>
     <row r="343" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
     </row>
     <row r="344" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
     </row>
     <row r="345" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="346" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D346" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
     </row>
     <row r="347" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D347" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
     </row>
     <row r="348" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
     </row>
     <row r="349" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D349" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
     </row>
     <row r="350" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
     </row>
     <row r="351" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D351" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="352" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D352" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
     </row>
     <row r="353" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
     </row>
     <row r="354" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D354" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
     </row>
     <row r="355" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="356" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D356" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
     </row>
     <row r="357" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D357" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
     </row>
     <row r="358" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D358" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="359" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D359" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="360" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D360" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="361" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D361" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
     </row>
     <row r="362" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
     </row>
     <row r="363" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D363" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="364" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D364" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
     </row>
     <row r="365" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
     </row>
     <row r="366" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D366" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
     </row>
     <row r="367" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="368" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D368" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
     </row>
     <row r="369" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D369" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
     </row>
     <row r="370" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D370" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
     </row>
     <row r="371" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D371" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="372" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D372" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
     </row>
     <row r="373" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D373" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
     </row>
     <row r="374" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D374" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
     </row>
     <row r="375" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D375" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="376" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D376" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
     </row>
     <row r="377" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D377" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
     <row r="378" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D378" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="379" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D379" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
     </row>
     <row r="380" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D380" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="381" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D381" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="382" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D382" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
     </row>
     <row r="383" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D383" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
     </row>
     <row r="384" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D384" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
     </row>
     <row r="385" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
     </row>
     <row r="386" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarcelino/Desktop/freezeman/backend/fms_core/static/submission_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5357F85D-67D2-9540-8540-3207947F0A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E94F34-EB32-CC40-9ABC-19FF41141F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1660" yWindow="-17560" windowWidth="27040" windowHeight="15780" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1660" yWindow="-17560" windowWidth="27040" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -1470,9 +1470,6 @@
     <t>Axiom</t>
   </si>
   <si>
-    <t>axiom genetitan array</t>
-  </si>
-  <si>
     <t>Protected</t>
   </si>
   <si>
@@ -1480,6 +1477,9 @@
   </si>
   <si>
     <t>Experiment run AXIOM template instructions</t>
+  </si>
+  <si>
+    <t>axiom 96-format  array</t>
   </si>
 </sst>
 </file>
@@ -2170,9 +2170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2320,7 +2320,7 @@
       <c r="A7" s="33"/>
       <c r="B7" s="2"/>
       <c r="C7" s="31" t="str">
-        <f>IF(A7&lt;&gt;"","axiom genetitan array","")</f>
+        <f>IF(A7&lt;&gt;"","axiom 96-format  array","")</f>
         <v/>
       </c>
       <c r="D7" s="2"/>
@@ -2331,7 +2331,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="2"/>
       <c r="C8" s="31" t="str">
-        <f t="shared" ref="C8:C26" si="0">IF(A8&lt;&gt;"","axiom genetitan array","")</f>
+        <f t="shared" ref="C8:C26" si="0">IF(A8&lt;&gt;"","axiom 96-format  array","")</f>
         <v/>
       </c>
       <c r="D8" s="2"/>
@@ -19946,7 +19946,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -20200,8 +20200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -20262,7 +20262,7 @@
         <v>60</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>61</v>
@@ -20286,7 +20286,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>65</v>

--- a/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_AXIOM_v4_6_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarcelino/Desktop/freezeman/backend/fms_core/static/submission_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E94F34-EB32-CC40-9ABC-19FF41141F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0D15F1-1EDF-614C-8FE4-0C871ECE2071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1660" yWindow="-17560" windowWidth="27040" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="17560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="458">
   <si>
     <t>Experiment Submission Template</t>
   </si>
@@ -210,9 +210,6 @@
     <t>C02</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
     <t>Coord</t>
   </si>
   <si>
@@ -1480,6 +1477,21 @@
   </si>
   <si>
     <t>axiom 96-format  array</t>
+  </si>
+  <si>
+    <t>Unique barcode for axiom module 4.1</t>
+  </si>
+  <si>
+    <t>Unique barcode for axiom module 4.2</t>
+  </si>
+  <si>
+    <t>Name of the liquid Handler Instrument</t>
+  </si>
+  <si>
+    <t>Addtitional information for Reagent Preparation</t>
+  </si>
+  <si>
+    <t>Additional information for denaturation and hybridization</t>
   </si>
 </sst>
 </file>
@@ -2170,9 +2182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2225,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -10334,9 +10346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10358,12 +10370,8 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>30</v>
-      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -18466,19 +18474,19 @@
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -19935,8 +19943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19946,7 +19954,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -19957,7 +19965,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -19965,7 +19973,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="24"/>
     </row>
@@ -19974,7 +19982,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="28"/>
     </row>
@@ -19983,7 +19991,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="28"/>
     </row>
@@ -19992,7 +20000,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="28"/>
     </row>
@@ -20001,7 +20009,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="28"/>
     </row>
@@ -20010,7 +20018,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="28"/>
     </row>
@@ -20019,7 +20027,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="28"/>
     </row>
@@ -20027,35 +20035,45 @@
       <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="27" t="s">
+        <v>457</v>
+      </c>
       <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="27" t="s">
+        <v>453</v>
+      </c>
       <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="27" t="s">
+        <v>454</v>
+      </c>
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>455</v>
+      </c>
       <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>456</v>
+      </c>
       <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -20100,7 +20118,7 @@
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -20110,7 +20128,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="28"/>
     </row>
@@ -20119,7 +20137,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="28"/>
     </row>
@@ -20128,7 +20146,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="28"/>
     </row>
@@ -20137,16 +20155,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="28"/>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>50</v>
       </c>
       <c r="C34" s="28"/>
     </row>
@@ -20155,7 +20173,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="28"/>
     </row>
@@ -20164,7 +20182,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="28"/>
     </row>
@@ -20173,7 +20191,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="28"/>
     </row>
@@ -20182,7 +20200,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="28"/>
     </row>
@@ -20221,25 +20239,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
         <v>26</v>
@@ -20247,7 +20265,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -20259,129 +20277,129 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="J2" t="s">
         <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="J3" t="s">
         <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -20389,100 +20407,100 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
         <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
         <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
         <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
         <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
         <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
         <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
         <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
         <v>99</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -20493,196 +20511,196 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
         <v>112</v>
-      </c>
-      <c r="D38" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
         <v>114</v>
-      </c>
-      <c r="D39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
         <v>116</v>
-      </c>
-      <c r="D40" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
         <v>118</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
         <v>120</v>
-      </c>
-      <c r="D42" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
         <v>122</v>
-      </c>
-      <c r="D43" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
         <v>124</v>
-      </c>
-      <c r="D44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
         <v>126</v>
-      </c>
-      <c r="D45" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
         <v>128</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
         <v>130</v>
-      </c>
-      <c r="D47" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="48" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
         <v>132</v>
-      </c>
-      <c r="D48" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="49" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
         <v>134</v>
-      </c>
-      <c r="D49" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
@@ -20690,1810 +20708,1810 @@
     </row>
     <row r="52" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
         <v>148</v>
-      </c>
-      <c r="D62" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="63" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" t="s">
         <v>150</v>
-      </c>
-      <c r="D63" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="64" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
         <v>152</v>
-      </c>
-      <c r="D64" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" t="s">
         <v>154</v>
-      </c>
-      <c r="D65" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" t="s">
         <v>156</v>
-      </c>
-      <c r="D66" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
         <v>158</v>
-      </c>
-      <c r="D67" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" t="s">
         <v>160</v>
-      </c>
-      <c r="D68" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" t="s">
         <v>162</v>
-      </c>
-      <c r="D69" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" t="s">
         <v>164</v>
-      </c>
-      <c r="D70" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" t="s">
         <v>166</v>
-      </c>
-      <c r="D71" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="72" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" t="s">
         <v>168</v>
-      </c>
-      <c r="D72" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="73" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" t="s">
         <v>170</v>
-      </c>
-      <c r="D73" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" t="s">
         <v>184</v>
-      </c>
-      <c r="D86" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" t="s">
         <v>186</v>
-      </c>
-      <c r="D87" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" t="s">
         <v>188</v>
-      </c>
-      <c r="D88" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" t="s">
         <v>190</v>
-      </c>
-      <c r="D89" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" t="s">
         <v>192</v>
-      </c>
-      <c r="D90" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" t="s">
         <v>194</v>
-      </c>
-      <c r="D91" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" t="s">
         <v>196</v>
-      </c>
-      <c r="D92" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
+        <v>197</v>
+      </c>
+      <c r="D93" t="s">
         <v>198</v>
-      </c>
-      <c r="D93" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" t="s">
         <v>200</v>
-      </c>
-      <c r="D94" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" t="s">
         <v>202</v>
-      </c>
-      <c r="D95" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" t="s">
         <v>204</v>
-      </c>
-      <c r="D96" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" t="s">
         <v>206</v>
-      </c>
-      <c r="D97" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="161" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="165" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="166" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="184" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="187" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="200" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="203" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="209" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="223" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="224" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="225" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="226" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="227" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="228" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="229" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D229" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="230" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="231" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="232" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="233" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="234" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D235" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="236" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="237" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="239" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D239" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="240" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D240" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="241" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D241" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D242" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="243" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D243" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="245" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D245" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D246" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="247" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D247" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="248" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D248" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="249" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D249" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="250" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D251" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="252" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D254" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="255" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="257" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D257" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="258" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="259" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D259" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="260" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D260" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="261" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="262" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="263" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D263" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="264" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D264" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="265" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="266" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D266" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="267" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D267" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="268" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D268" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="269" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="270" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="271" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="272" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="273" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D273" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="274" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D274" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="275" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="276" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D276" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="277" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="278" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="279" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="280" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="281" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="282" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D282" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="283" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="284" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D284" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="285" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="286" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="287" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D287" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="288" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D290" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D294" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D295" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D301" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="306" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D306" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="307" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D307" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="308" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D308" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="309" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D309" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="310" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D310" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="311" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D311" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="312" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D312" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="313" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D313" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="314" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D314" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="315" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D315" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="316" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D316" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="317" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D317" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="318" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D318" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="319" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D319" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="320" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D320" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="321" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D321" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="322" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="323" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D323" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="324" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D324" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="325" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="326" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D326" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="327" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D327" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="328" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D328" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="329" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="330" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D330" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="331" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D331" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="332" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="333" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="334" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="335" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D335" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="336" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="337" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="338" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="339" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="340" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D340" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="341" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="342" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="343" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="344" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="345" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="346" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D346" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="347" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D347" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="348" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="349" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D349" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="350" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="351" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D351" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="352" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D352" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="353" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="354" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D354" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="355" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="356" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D356" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="357" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D357" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="358" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D358" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="359" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D359" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="360" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D360" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="361" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D361" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="362" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="363" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D363" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="364" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D364" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="365" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="366" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D366" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="367" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="368" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D368" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="369" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D369" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="370" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D370" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="371" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D371" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="372" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D372" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="373" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D373" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="374" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D374" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="375" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D375" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="376" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D376" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="377" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D377" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="378" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D378" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="379" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D379" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="380" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D380" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="381" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D381" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="382" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D382" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="383" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D383" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="384" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D384" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="385" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="386" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
